--- a/biology/Zoologie/Insecte_vecteur/Insecte_vecteur.xlsx
+++ b/biology/Zoologie/Insecte_vecteur/Insecte_vecteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un insecte vecteur est un insecte dont le cycle de vie coïncide avec celui d'un organisme pathogène, permettant à ce dernier d'être véhiculé d'un hôte à un autre[1]. Souvent il s'agit d'insectes piqueurs (hématophages) pour les vecteurs de maladies animales ou humaines, qui transmettent l'agent pathogène lorsqu'ils viennent se nourrir de sang.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un insecte vecteur est un insecte dont le cycle de vie coïncide avec celui d'un organisme pathogène, permettant à ce dernier d'être véhiculé d'un hôte à un autre. Souvent il s'agit d'insectes piqueurs (hématophages) pour les vecteurs de maladies animales ou humaines, qui transmettent l'agent pathogène lorsqu'ils viennent se nourrir de sang.
 On appelle arbovirus (pour arthropod-borne virus) les virus des animaux et des humains ayant pour vecteur des arthropodes suceurs de sang : moustiques, tiques, phlébotomes.
-On appelle « réservoir » une espèce animale ou végétale qui est porteuse de l'agent pathogène d'une maladie et permet ainsi aux insectes vecteurs de se contaminer en dehors de l'hôte principal[2].
+On appelle « réservoir » une espèce animale ou végétale qui est porteuse de l'agent pathogène d'une maladie et permet ainsi aux insectes vecteurs de se contaminer en dehors de l'hôte principal.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prévention
 afin d'éviter d'être piqué :
